--- a/src/main/webapp/excel/file/test.xlsx
+++ b/src/main/webapp/excel/file/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\试题导入\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D5B71662-FF21-415B-BEF5-420FA6F0D598}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -14610,7 +14616,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -14669,7 +14675,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14946,25 +14952,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>4842</v>
       </c>
@@ -14990,7 +14996,7 @@
         <v>4849</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -15016,7 +15022,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -15042,7 +15048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -15068,7 +15074,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -15094,7 +15100,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -15120,7 +15126,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -15146,7 +15152,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -15172,7 +15178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -15198,7 +15204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -15224,7 +15230,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -15250,7 +15256,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -15276,7 +15282,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -15302,7 +15308,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -15328,7 +15334,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -15354,7 +15360,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -15380,7 +15386,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -15406,7 +15412,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -15432,7 +15438,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -15458,7 +15464,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -15484,7 +15490,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -15510,7 +15516,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -15536,7 +15542,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -15562,7 +15568,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -15588,7 +15594,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -15614,7 +15620,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -15640,7 +15646,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -15666,7 +15672,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -15692,7 +15698,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -15718,7 +15724,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -15744,7 +15750,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -15770,7 +15776,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -15796,7 +15802,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -15822,7 +15828,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -15848,7 +15854,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -15874,7 +15880,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -15900,7 +15906,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -15926,7 +15932,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -15952,7 +15958,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -15978,7 +15984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -16004,7 +16010,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -16030,7 +16036,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -16056,7 +16062,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -16082,7 +16088,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -16108,7 +16114,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -16134,7 +16140,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -16186,7 +16192,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -16212,7 +16218,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -16238,7 +16244,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -16264,7 +16270,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -16290,7 +16296,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -16316,7 +16322,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -16342,7 +16348,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -16368,7 +16374,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -16394,7 +16400,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -16420,7 +16426,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -16446,7 +16452,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -16472,7 +16478,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -16498,7 +16504,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -16524,7 +16530,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -16550,7 +16556,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -16576,7 +16582,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -16602,7 +16608,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -16628,7 +16634,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -16654,7 +16660,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -16680,7 +16686,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -16706,7 +16712,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -16732,7 +16738,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -16758,7 +16764,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -16784,7 +16790,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -16810,7 +16816,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -16836,7 +16842,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -16862,7 +16868,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -16888,7 +16894,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -16914,7 +16920,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -16940,7 +16946,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -16966,7 +16972,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -16992,7 +16998,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -17018,7 +17024,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -17044,7 +17050,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -17070,7 +17076,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -17096,7 +17102,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -17122,7 +17128,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -17148,7 +17154,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -17174,7 +17180,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -17200,7 +17206,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>3</v>
       </c>
@@ -17226,7 +17232,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>3</v>
       </c>
@@ -17252,7 +17258,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>3</v>
       </c>
@@ -17278,7 +17284,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>3</v>
       </c>
@@ -17304,7 +17310,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
@@ -17330,7 +17336,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>3</v>
       </c>
@@ -17356,7 +17362,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>3</v>
       </c>
@@ -17382,7 +17388,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>3</v>
       </c>
@@ -17408,7 +17414,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
@@ -17434,7 +17440,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>3</v>
       </c>
@@ -17460,7 +17466,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
@@ -17486,7 +17492,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>3</v>
       </c>
@@ -17512,7 +17518,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
@@ -17538,7 +17544,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>3</v>
       </c>
@@ -17564,7 +17570,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
@@ -17590,7 +17596,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>3</v>
       </c>
@@ -17616,7 +17622,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>3</v>
       </c>
@@ -17642,7 +17648,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>3</v>
       </c>
@@ -17668,7 +17674,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>3</v>
       </c>
@@ -17694,7 +17700,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>3</v>
       </c>
@@ -17720,7 +17726,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
@@ -17746,7 +17752,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>3</v>
       </c>
@@ -17772,7 +17778,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>3</v>
       </c>
@@ -17798,7 +17804,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>3</v>
       </c>
@@ -17824,7 +17830,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>3</v>
       </c>
@@ -17850,7 +17856,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>3</v>
       </c>
@@ -17876,7 +17882,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>3</v>
       </c>
@@ -17902,7 +17908,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
@@ -17928,7 +17934,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>3</v>
       </c>
@@ -17954,7 +17960,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>3</v>
       </c>
@@ -17980,7 +17986,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>3</v>
       </c>
@@ -18006,7 +18012,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>3</v>
       </c>
@@ -18032,7 +18038,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>3</v>
       </c>
@@ -18058,7 +18064,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>3</v>
       </c>
@@ -18084,7 +18090,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>3</v>
       </c>
@@ -18110,7 +18116,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>3</v>
       </c>
@@ -18136,7 +18142,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>3</v>
       </c>
@@ -18162,7 +18168,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>3</v>
       </c>
@@ -18188,7 +18194,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>3</v>
       </c>
@@ -18240,7 +18246,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>3</v>
       </c>
@@ -18266,7 +18272,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>3</v>
       </c>
@@ -18292,7 +18298,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>3</v>
       </c>
@@ -18318,7 +18324,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>3</v>
       </c>
@@ -18344,7 +18350,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>3</v>
       </c>
@@ -18370,7 +18376,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>3</v>
       </c>
@@ -18396,7 +18402,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>3</v>
       </c>
@@ -18422,7 +18428,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>3</v>
       </c>
@@ -18448,7 +18454,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>3</v>
       </c>
@@ -18474,7 +18480,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>3</v>
       </c>
@@ -18500,7 +18506,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>3</v>
       </c>
@@ -18526,7 +18532,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
@@ -18552,7 +18558,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>3</v>
       </c>
@@ -18578,7 +18584,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>3</v>
       </c>
@@ -18604,7 +18610,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>3</v>
       </c>
@@ -18630,7 +18636,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>3</v>
       </c>
@@ -18656,7 +18662,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>3</v>
       </c>
@@ -18682,7 +18688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>3</v>
       </c>
@@ -18708,7 +18714,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>3</v>
       </c>
@@ -18734,7 +18740,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>3</v>
       </c>
@@ -18760,7 +18766,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>3</v>
       </c>
@@ -18786,7 +18792,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>3</v>
       </c>
@@ -18812,7 +18818,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>3</v>
       </c>
@@ -18838,7 +18844,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>3</v>
       </c>
@@ -18864,7 +18870,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>3</v>
       </c>
@@ -18890,7 +18896,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>3</v>
       </c>
@@ -18916,7 +18922,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>3</v>
       </c>
@@ -18942,7 +18948,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>3</v>
       </c>
@@ -18968,7 +18974,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
@@ -18994,7 +19000,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>3</v>
       </c>
@@ -19020,7 +19026,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>3</v>
       </c>
@@ -19046,7 +19052,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
@@ -19072,7 +19078,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>3</v>
       </c>
@@ -19098,7 +19104,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>3</v>
       </c>
@@ -19124,7 +19130,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>3</v>
       </c>
@@ -19150,7 +19156,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>8</v>
       </c>
@@ -19176,7 +19182,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>8</v>
       </c>
@@ -19202,7 +19208,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
@@ -19228,7 +19234,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>8</v>
       </c>
@@ -19254,7 +19260,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>8</v>
       </c>
@@ -19280,7 +19286,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>8</v>
       </c>
@@ -19306,7 +19312,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>8</v>
       </c>
@@ -19332,7 +19338,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>8</v>
       </c>
@@ -19358,7 +19364,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>8</v>
       </c>
@@ -19384,7 +19390,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>8</v>
       </c>
@@ -19410,7 +19416,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>8</v>
       </c>
@@ -19436,7 +19442,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>8</v>
       </c>
@@ -19462,7 +19468,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>8</v>
       </c>
@@ -19488,7 +19494,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>8</v>
       </c>
@@ -19514,7 +19520,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>8</v>
       </c>
@@ -19540,7 +19546,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>8</v>
       </c>
@@ -19566,7 +19572,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>8</v>
       </c>
@@ -19592,7 +19598,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>8</v>
       </c>
@@ -19618,7 +19624,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>8</v>
       </c>
@@ -19644,7 +19650,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>8</v>
       </c>
@@ -19670,7 +19676,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>8</v>
       </c>
@@ -19696,7 +19702,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>8</v>
       </c>
@@ -19722,7 +19728,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>8</v>
       </c>
@@ -19748,7 +19754,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>8</v>
       </c>
@@ -19774,7 +19780,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>8</v>
       </c>
@@ -19800,7 +19806,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>8</v>
       </c>
@@ -19826,7 +19832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>8</v>
       </c>
@@ -19852,7 +19858,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>8</v>
       </c>
@@ -19878,7 +19884,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>8</v>
       </c>
@@ -19904,7 +19910,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>8</v>
       </c>
@@ -19930,7 +19936,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>8</v>
       </c>
@@ -19956,7 +19962,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>8</v>
       </c>
@@ -19982,7 +19988,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>8</v>
       </c>
@@ -20008,7 +20014,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>8</v>
       </c>
@@ -20034,7 +20040,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>8</v>
       </c>
@@ -20060,7 +20066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>8</v>
       </c>
@@ -20086,7 +20092,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>8</v>
       </c>
@@ -20112,7 +20118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>8</v>
       </c>
@@ -20138,7 +20144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>8</v>
       </c>
@@ -20164,7 +20170,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>8</v>
       </c>
@@ -20190,7 +20196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>8</v>
       </c>
@@ -20216,7 +20222,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>8</v>
       </c>
@@ -20242,7 +20248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>8</v>
       </c>
@@ -20268,7 +20274,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>8</v>
       </c>
@@ -20294,7 +20300,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>8</v>
       </c>
@@ -20320,7 +20326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>8</v>
       </c>
@@ -20346,7 +20352,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>8</v>
       </c>
@@ -20372,7 +20378,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>8</v>
       </c>
@@ -20398,7 +20404,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>8</v>
       </c>
@@ -20424,7 +20430,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -20450,7 +20456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>8</v>
       </c>
@@ -20476,7 +20482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>8</v>
       </c>
@@ -20502,7 +20508,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>8</v>
       </c>
@@ -20528,7 +20534,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>8</v>
       </c>
@@ -20554,7 +20560,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>8</v>
       </c>
@@ -20580,7 +20586,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>8</v>
       </c>
@@ -20606,7 +20612,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>8</v>
       </c>
@@ -20632,7 +20638,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>8</v>
       </c>
@@ -20658,7 +20664,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>8</v>
       </c>
@@ -20684,7 +20690,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>8</v>
       </c>
@@ -20710,7 +20716,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>8</v>
       </c>
@@ -20736,7 +20742,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>8</v>
       </c>
@@ -20762,7 +20768,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>8</v>
       </c>
@@ -20788,7 +20794,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>8</v>
       </c>
@@ -20814,7 +20820,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>8</v>
       </c>
@@ -20840,7 +20846,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>8</v>
       </c>
@@ -20866,7 +20872,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>8</v>
       </c>
@@ -20892,7 +20898,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>8</v>
       </c>
@@ -20918,7 +20924,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>8</v>
       </c>
@@ -20944,7 +20950,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>8</v>
       </c>
@@ -20970,7 +20976,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>8</v>
       </c>
@@ -20996,7 +21002,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>8</v>
       </c>
@@ -21022,7 +21028,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>8</v>
       </c>
@@ -21048,7 +21054,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>8</v>
       </c>
@@ -21074,7 +21080,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>8</v>
       </c>
@@ -21100,7 +21106,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>8</v>
       </c>
@@ -21126,7 +21132,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>8</v>
       </c>
@@ -21152,7 +21158,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>8</v>
       </c>
@@ -21178,7 +21184,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>8</v>
       </c>
@@ -21204,7 +21210,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>8</v>
       </c>
@@ -21230,7 +21236,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>8</v>
       </c>
@@ -21256,7 +21262,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>8</v>
       </c>
@@ -21282,7 +21288,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>8</v>
       </c>
@@ -21308,7 +21314,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
@@ -21334,7 +21340,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>8</v>
       </c>
@@ -21360,7 +21366,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>8</v>
       </c>
@@ -21386,7 +21392,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>8</v>
       </c>
@@ -21412,7 +21418,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>8</v>
       </c>
@@ -21438,7 +21444,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>8</v>
       </c>
@@ -21464,7 +21470,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>8</v>
       </c>
@@ -21490,7 +21496,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>68</v>
       </c>
@@ -21516,7 +21522,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>68</v>
       </c>
@@ -21542,7 +21548,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>68</v>
       </c>
@@ -21568,7 +21574,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>68</v>
       </c>
@@ -21594,7 +21600,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>68</v>
       </c>
@@ -21620,7 +21626,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>68</v>
       </c>
@@ -21646,7 +21652,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>68</v>
       </c>
@@ -21672,7 +21678,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>68</v>
       </c>
@@ -21698,7 +21704,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>68</v>
       </c>
@@ -21724,7 +21730,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>68</v>
       </c>
@@ -21750,7 +21756,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>68</v>
       </c>
@@ -21776,7 +21782,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>68</v>
       </c>
@@ -21802,7 +21808,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>68</v>
       </c>
@@ -21828,7 +21834,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>68</v>
       </c>
@@ -21854,7 +21860,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>68</v>
       </c>
@@ -21880,7 +21886,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>68</v>
       </c>
@@ -21906,7 +21912,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>68</v>
       </c>
@@ -21932,7 +21938,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>68</v>
       </c>
@@ -21958,7 +21964,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>68</v>
       </c>
@@ -21984,7 +21990,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>68</v>
       </c>
@@ -22010,7 +22016,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>68</v>
       </c>
@@ -22036,7 +22042,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>68</v>
       </c>
@@ -22062,7 +22068,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>68</v>
       </c>
@@ -22088,7 +22094,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>68</v>
       </c>
@@ -22114,7 +22120,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>68</v>
       </c>
@@ -22140,7 +22146,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>68</v>
       </c>
@@ -22166,7 +22172,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>68</v>
       </c>
@@ -22192,7 +22198,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>68</v>
       </c>
@@ -22218,7 +22224,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>68</v>
       </c>
@@ -22244,7 +22250,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>68</v>
       </c>
@@ -22270,7 +22276,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>68</v>
       </c>
@@ -22296,7 +22302,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>68</v>
       </c>
@@ -22322,7 +22328,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>68</v>
       </c>
@@ -22348,7 +22354,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>68</v>
       </c>
@@ -22374,7 +22380,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
         <v>68</v>
       </c>
@@ -22400,7 +22406,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>68</v>
       </c>
@@ -22426,7 +22432,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>68</v>
       </c>
@@ -22452,7 +22458,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>68</v>
       </c>
@@ -22478,7 +22484,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>68</v>
       </c>
@@ -22504,7 +22510,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>68</v>
       </c>
@@ -22530,7 +22536,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>68</v>
       </c>
@@ -22556,7 +22562,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>68</v>
       </c>
@@ -22582,7 +22588,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>68</v>
       </c>
@@ -22608,7 +22614,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>68</v>
       </c>
@@ -22634,7 +22640,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>68</v>
       </c>
@@ -22660,7 +22666,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>68</v>
       </c>
@@ -22686,7 +22692,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>68</v>
       </c>
@@ -22712,7 +22718,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>68</v>
       </c>
@@ -22738,7 +22744,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>69</v>
       </c>
@@ -22764,7 +22770,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>69</v>
       </c>
@@ -22790,7 +22796,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>69</v>
       </c>
@@ -22816,7 +22822,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>69</v>
       </c>
@@ -22842,7 +22848,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>69</v>
       </c>
@@ -22868,7 +22874,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>69</v>
       </c>
@@ -22894,7 +22900,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>69</v>
       </c>
@@ -22920,7 +22926,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="307" spans="1:8">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>69</v>
       </c>
@@ -22946,7 +22952,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="308" spans="1:8">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>69</v>
       </c>
@@ -22972,7 +22978,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="309" spans="1:8">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>69</v>
       </c>
@@ -22998,7 +23004,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>69</v>
       </c>
@@ -23024,7 +23030,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="311" spans="1:8">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>69</v>
       </c>
@@ -23050,7 +23056,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>69</v>
       </c>
@@ -23076,7 +23082,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>69</v>
       </c>
@@ -23102,7 +23108,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>69</v>
       </c>
@@ -23128,7 +23134,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>69</v>
       </c>
@@ -23154,7 +23160,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>69</v>
       </c>
@@ -23180,7 +23186,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>69</v>
       </c>
@@ -23206,7 +23212,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>69</v>
       </c>
@@ -23232,7 +23238,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
         <v>69</v>
       </c>
@@ -23258,7 +23264,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>69</v>
       </c>
@@ -23284,7 +23290,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
         <v>69</v>
       </c>
@@ -23310,7 +23316,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>69</v>
       </c>
@@ -23336,7 +23342,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>69</v>
       </c>
@@ -23362,7 +23368,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>69</v>
       </c>
@@ -23388,7 +23394,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>69</v>
       </c>
@@ -23414,7 +23420,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>69</v>
       </c>
@@ -23440,7 +23446,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
         <v>69</v>
       </c>
@@ -23466,7 +23472,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
         <v>69</v>
       </c>
@@ -23492,7 +23498,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>69</v>
       </c>
@@ -23518,7 +23524,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>69</v>
       </c>
@@ -23544,7 +23550,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
         <v>69</v>
       </c>
@@ -23570,7 +23576,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
         <v>69</v>
       </c>
@@ -23596,7 +23602,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>69</v>
       </c>
@@ -23622,7 +23628,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>69</v>
       </c>
@@ -23648,7 +23654,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>69</v>
       </c>
@@ -23674,7 +23680,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>69</v>
       </c>
@@ -23700,7 +23706,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>69</v>
       </c>
@@ -23726,7 +23732,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
         <v>69</v>
       </c>
@@ -23752,7 +23758,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>69</v>
       </c>
@@ -23778,7 +23784,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
         <v>69</v>
       </c>
@@ -23804,7 +23810,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>69</v>
       </c>
@@ -23830,7 +23836,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>69</v>
       </c>
@@ -23856,7 +23862,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>69</v>
       </c>
@@ -23882,7 +23888,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
         <v>69</v>
       </c>
@@ -23908,7 +23914,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="345" spans="1:8">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
         <v>69</v>
       </c>
@@ -23934,7 +23940,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
         <v>69</v>
       </c>
@@ -23960,7 +23966,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
         <v>69</v>
       </c>
@@ -23986,7 +23992,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="348" spans="1:8">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
         <v>69</v>
       </c>
@@ -24012,7 +24018,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>69</v>
       </c>
@@ -24038,7 +24044,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>69</v>
       </c>
@@ -24064,7 +24070,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>69</v>
       </c>
@@ -24090,7 +24096,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
         <v>69</v>
       </c>
@@ -24116,7 +24122,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
         <v>69</v>
       </c>
@@ -24142,7 +24148,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
         <v>69</v>
       </c>
@@ -24168,7 +24174,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
         <v>69</v>
       </c>
@@ -24194,7 +24200,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
         <v>69</v>
       </c>
@@ -24220,7 +24226,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
         <v>69</v>
       </c>
@@ -24246,7 +24252,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
         <v>69</v>
       </c>
@@ -24272,7 +24278,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
         <v>69</v>
       </c>
@@ -24298,7 +24304,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
         <v>69</v>
       </c>
@@ -24324,7 +24330,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>69</v>
       </c>
@@ -24350,7 +24356,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
         <v>69</v>
       </c>
@@ -24376,7 +24382,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>69</v>
       </c>
@@ -24402,7 +24408,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>69</v>
       </c>
@@ -24428,7 +24434,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
         <v>69</v>
       </c>
@@ -24454,7 +24460,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>69</v>
       </c>
@@ -24480,7 +24486,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>69</v>
       </c>
@@ -24506,7 +24512,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
         <v>69</v>
       </c>
@@ -24532,7 +24538,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
         <v>69</v>
       </c>
@@ -24558,7 +24564,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
         <v>69</v>
       </c>
@@ -24584,7 +24590,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>69</v>
       </c>
@@ -24610,7 +24616,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
         <v>69</v>
       </c>
@@ -24636,7 +24642,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>69</v>
       </c>
@@ -24662,7 +24668,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
         <v>69</v>
       </c>
@@ -24688,7 +24694,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>69</v>
       </c>
@@ -24714,7 +24720,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>69</v>
       </c>
@@ -24740,7 +24746,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>69</v>
       </c>
@@ -24766,7 +24772,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
         <v>69</v>
       </c>
@@ -24792,7 +24798,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
         <v>69</v>
       </c>
@@ -24818,7 +24824,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>69</v>
       </c>
@@ -24844,7 +24850,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>69</v>
       </c>
@@ -24870,7 +24876,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="382" spans="1:8">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
         <v>69</v>
       </c>
@@ -24896,7 +24902,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="383" spans="1:8">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>69</v>
       </c>
@@ -24922,7 +24928,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
         <v>69</v>
       </c>
@@ -24948,7 +24954,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="385" spans="1:8">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>69</v>
       </c>
@@ -24974,7 +24980,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>69</v>
       </c>
@@ -25000,7 +25006,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>69</v>
       </c>
@@ -25026,7 +25032,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>69</v>
       </c>
@@ -25052,7 +25058,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
         <v>69</v>
       </c>
@@ -25078,7 +25084,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>69</v>
       </c>
@@ -25104,7 +25110,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>69</v>
       </c>
@@ -25130,7 +25136,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
         <v>70</v>
       </c>
@@ -25156,7 +25162,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>70</v>
       </c>
@@ -25182,7 +25188,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>70</v>
       </c>
@@ -25208,7 +25214,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
         <v>70</v>
       </c>
@@ -25234,7 +25240,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>70</v>
       </c>
@@ -25260,7 +25266,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>70</v>
       </c>
@@ -25286,7 +25292,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>70</v>
       </c>
@@ -25312,7 +25318,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
         <v>70</v>
       </c>
@@ -25338,7 +25344,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
         <v>70</v>
       </c>
@@ -25364,7 +25370,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
         <v>70</v>
       </c>
@@ -25390,7 +25396,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
         <v>70</v>
       </c>
@@ -25416,7 +25422,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
         <v>70</v>
       </c>
@@ -25442,7 +25448,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
         <v>70</v>
       </c>
@@ -25468,7 +25474,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
         <v>70</v>
       </c>
@@ -25494,7 +25500,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
         <v>70</v>
       </c>
@@ -25520,7 +25526,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
         <v>70</v>
       </c>
@@ -25546,7 +25552,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>71</v>
       </c>
@@ -25572,7 +25578,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
         <v>71</v>
       </c>
@@ -25598,7 +25604,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>71</v>
       </c>
@@ -25624,7 +25630,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
         <v>71</v>
       </c>
@@ -25650,7 +25656,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>71</v>
       </c>
@@ -25676,7 +25682,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
         <v>71</v>
       </c>
@@ -25702,7 +25708,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
         <v>71</v>
       </c>
@@ -25728,7 +25734,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>71</v>
       </c>
@@ -25754,7 +25760,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
         <v>71</v>
       </c>
@@ -25780,7 +25786,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
         <v>71</v>
       </c>
@@ -25806,7 +25812,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
         <v>71</v>
       </c>
@@ -25832,7 +25838,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
         <v>71</v>
       </c>
@@ -25858,7 +25864,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
         <v>71</v>
       </c>
@@ -25884,7 +25890,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
         <v>71</v>
       </c>
@@ -25910,7 +25916,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>71</v>
       </c>
@@ -25936,7 +25942,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
         <v>71</v>
       </c>
@@ -25962,7 +25968,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>71</v>
       </c>
@@ -25988,7 +25994,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>71</v>
       </c>
@@ -26014,7 +26020,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
         <v>71</v>
       </c>
@@ -26040,7 +26046,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
         <v>71</v>
       </c>
@@ -26066,7 +26072,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
         <v>71</v>
       </c>
@@ -26092,7 +26098,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
         <v>71</v>
       </c>
@@ -26118,7 +26124,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
         <v>71</v>
       </c>
@@ -26144,7 +26150,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
         <v>71</v>
       </c>
@@ -26170,7 +26176,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
         <v>71</v>
       </c>
@@ -26196,7 +26202,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
         <v>71</v>
       </c>
@@ -26222,7 +26228,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>71</v>
       </c>
@@ -26248,7 +26254,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
         <v>71</v>
       </c>
@@ -26274,7 +26280,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
         <v>71</v>
       </c>
@@ -26300,7 +26306,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
         <v>71</v>
       </c>
@@ -26326,7 +26332,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
         <v>71</v>
       </c>
@@ -26352,7 +26358,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
         <v>71</v>
       </c>
@@ -26378,7 +26384,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
         <v>71</v>
       </c>
@@ -26404,7 +26410,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
         <v>71</v>
       </c>
@@ -26430,7 +26436,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
         <v>71</v>
       </c>
@@ -26456,7 +26462,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
         <v>71</v>
       </c>
@@ -26482,7 +26488,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>71</v>
       </c>
@@ -26508,7 +26514,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
         <v>71</v>
       </c>
@@ -26534,7 +26540,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
         <v>71</v>
       </c>
@@ -26560,7 +26566,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>71</v>
       </c>
@@ -26586,7 +26592,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
         <v>71</v>
       </c>
@@ -26612,7 +26618,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
         <v>71</v>
       </c>
@@ -26638,7 +26644,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
         <v>71</v>
       </c>
@@ -26664,7 +26670,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>71</v>
       </c>
@@ -26690,7 +26696,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
         <v>71</v>
       </c>
@@ -26716,7 +26722,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
         <v>71</v>
       </c>
@@ -26742,7 +26748,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
         <v>71</v>
       </c>
@@ -26768,7 +26774,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
         <v>72</v>
       </c>
@@ -26794,7 +26800,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="456" spans="1:8">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>72</v>
       </c>
@@ -26820,7 +26826,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
         <v>72</v>
       </c>
@@ -26846,7 +26852,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>72</v>
       </c>
@@ -26872,7 +26878,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="459" spans="1:8">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
         <v>72</v>
       </c>
@@ -26898,7 +26904,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
         <v>72</v>
       </c>
@@ -26924,7 +26930,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>72</v>
       </c>
@@ -26950,7 +26956,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
         <v>72</v>
       </c>
@@ -26976,7 +26982,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
         <v>72</v>
       </c>
@@ -27002,7 +27008,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
         <v>72</v>
       </c>
@@ -27028,7 +27034,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>72</v>
       </c>
@@ -27054,7 +27060,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>72</v>
       </c>
@@ -27080,7 +27086,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>72</v>
       </c>
@@ -27106,7 +27112,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
         <v>72</v>
       </c>
@@ -27132,7 +27138,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
         <v>72</v>
       </c>
@@ -27158,7 +27164,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
         <v>72</v>
       </c>
@@ -27184,7 +27190,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>73</v>
       </c>
@@ -27210,7 +27216,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
         <v>73</v>
       </c>
@@ -27236,7 +27242,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
         <v>73</v>
       </c>
@@ -27262,7 +27268,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>73</v>
       </c>
@@ -27288,7 +27294,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
         <v>73</v>
       </c>
@@ -27314,7 +27320,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
         <v>73</v>
       </c>
@@ -27340,7 +27346,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
         <v>73</v>
       </c>
@@ -27366,7 +27372,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
         <v>73</v>
       </c>
@@ -27392,7 +27398,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
         <v>73</v>
       </c>
@@ -27418,7 +27424,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
         <v>73</v>
       </c>
@@ -27444,7 +27450,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
         <v>73</v>
       </c>
@@ -27470,7 +27476,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
         <v>73</v>
       </c>
@@ -27496,7 +27502,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
         <v>73</v>
       </c>
@@ -27522,7 +27528,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
         <v>73</v>
       </c>
@@ -27548,7 +27554,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
         <v>73</v>
       </c>
@@ -27574,7 +27580,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>73</v>
       </c>
@@ -27600,7 +27606,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>73</v>
       </c>
@@ -27626,7 +27632,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>73</v>
       </c>
@@ -27652,7 +27658,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
         <v>73</v>
       </c>
@@ -27678,7 +27684,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
         <v>73</v>
       </c>
@@ -27704,7 +27710,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>73</v>
       </c>
@@ -27730,7 +27736,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="492" spans="1:8">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
         <v>73</v>
       </c>
@@ -27756,7 +27762,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="493" spans="1:8">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
         <v>73</v>
       </c>
@@ -27782,7 +27788,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="494" spans="1:8">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A494" s="1" t="s">
         <v>73</v>
       </c>
@@ -27808,7 +27814,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
         <v>73</v>
       </c>
@@ -27834,7 +27840,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="496" spans="1:8">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
         <v>73</v>
       </c>
@@ -27860,7 +27866,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A497" s="1" t="s">
         <v>73</v>
       </c>
@@ -27886,7 +27892,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
         <v>73</v>
       </c>
@@ -27912,7 +27918,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A499" s="1" t="s">
         <v>73</v>
       </c>
@@ -27938,7 +27944,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A500" s="1" t="s">
         <v>73</v>
       </c>
@@ -27964,7 +27970,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
         <v>73</v>
       </c>
@@ -27990,7 +27996,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A502" s="1" t="s">
         <v>73</v>
       </c>
@@ -28016,7 +28022,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A503" s="1" t="s">
         <v>73</v>
       </c>
@@ -28042,7 +28048,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A504" s="1" t="s">
         <v>73</v>
       </c>
@@ -28068,7 +28074,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A505" s="1" t="s">
         <v>73</v>
       </c>
@@ -28094,7 +28100,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A506" s="1" t="s">
         <v>73</v>
       </c>
@@ -28120,7 +28126,7 @@
         <v>2471</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A507" s="1" t="s">
         <v>73</v>
       </c>
@@ -28146,7 +28152,7 @@
         <v>2477</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
         <v>73</v>
       </c>
@@ -28172,7 +28178,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A509" s="1" t="s">
         <v>73</v>
       </c>
@@ -28198,7 +28204,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
         <v>73</v>
       </c>
@@ -28224,7 +28230,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
         <v>73</v>
       </c>
@@ -28250,7 +28256,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
         <v>73</v>
       </c>
@@ -28276,7 +28282,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A513" s="1" t="s">
         <v>73</v>
       </c>
@@ -28302,7 +28308,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A514" s="1" t="s">
         <v>73</v>
       </c>
@@ -28328,7 +28334,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A515" s="1" t="s">
         <v>73</v>
       </c>
@@ -28354,7 +28360,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
         <v>73</v>
       </c>
@@ -28380,7 +28386,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
         <v>73</v>
       </c>
@@ -28406,7 +28412,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A518" s="1" t="s">
         <v>73</v>
       </c>
@@ -28432,7 +28438,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A519" s="1" t="s">
         <v>73</v>
       </c>
@@ -28458,7 +28464,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A520" s="1" t="s">
         <v>73</v>
       </c>
@@ -28484,7 +28490,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
         <v>73</v>
       </c>
@@ -28510,7 +28516,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
         <v>73</v>
       </c>
@@ -28536,7 +28542,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A523" s="1" t="s">
         <v>73</v>
       </c>
@@ -28562,7 +28568,7 @@
         <v>2555</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
         <v>73</v>
       </c>
@@ -28588,7 +28594,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A525" s="1" t="s">
         <v>73</v>
       </c>
@@ -28614,7 +28620,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A526" s="1" t="s">
         <v>73</v>
       </c>
@@ -28640,7 +28646,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
         <v>73</v>
       </c>
@@ -28666,7 +28672,7 @@
         <v>2579</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A528" s="1" t="s">
         <v>73</v>
       </c>
@@ -28692,7 +28698,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="529" spans="1:8">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
         <v>73</v>
       </c>
@@ -28718,7 +28724,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="530" spans="1:8">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A530" s="1" t="s">
         <v>73</v>
       </c>
@@ -28744,7 +28750,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="531" spans="1:8">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
         <v>73</v>
       </c>
@@ -28770,7 +28776,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
         <v>73</v>
       </c>
@@ -28796,7 +28802,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="533" spans="1:8">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A533" s="1" t="s">
         <v>73</v>
       </c>
@@ -28822,7 +28828,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
         <v>73</v>
       </c>
@@ -28848,7 +28854,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
         <v>73</v>
       </c>
@@ -28874,7 +28880,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
         <v>73</v>
       </c>
@@ -28900,7 +28906,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A537" s="1" t="s">
         <v>73</v>
       </c>
@@ -28926,7 +28932,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A538" s="1" t="s">
         <v>73</v>
       </c>
@@ -28952,7 +28958,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A539" s="1" t="s">
         <v>73</v>
       </c>
@@ -28978,7 +28984,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A540" s="1" t="s">
         <v>73</v>
       </c>
@@ -29004,7 +29010,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A541" s="1" t="s">
         <v>73</v>
       </c>
@@ -29030,7 +29036,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A542" s="1" t="s">
         <v>73</v>
       </c>
@@ -29056,7 +29062,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
         <v>73</v>
       </c>
@@ -29082,7 +29088,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A544" s="1" t="s">
         <v>73</v>
       </c>
@@ -29108,7 +29114,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
         <v>73</v>
       </c>
@@ -29134,7 +29140,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
         <v>73</v>
       </c>
@@ -29160,7 +29166,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A547" s="1" t="s">
         <v>73</v>
       </c>
@@ -29186,7 +29192,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A548" s="1" t="s">
         <v>73</v>
       </c>
@@ -29212,7 +29218,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A549" s="1" t="s">
         <v>73</v>
       </c>
@@ -29238,7 +29244,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A550" s="1" t="s">
         <v>73</v>
       </c>
@@ -29264,7 +29270,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A551" s="1" t="s">
         <v>73</v>
       </c>
@@ -29290,7 +29296,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A552" s="1" t="s">
         <v>73</v>
       </c>
@@ -29316,7 +29322,7 @@
         <v>2715</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A553" s="1" t="s">
         <v>73</v>
       </c>
@@ -29342,7 +29348,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A554" s="1" t="s">
         <v>73</v>
       </c>
@@ -29368,7 +29374,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A555" s="1" t="s">
         <v>73</v>
       </c>
@@ -29394,7 +29400,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A556" s="1" t="s">
         <v>73</v>
       </c>
@@ -29420,7 +29426,7 @@
         <v>2735</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A557" s="1" t="s">
         <v>73</v>
       </c>
@@ -29446,7 +29452,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A558" s="1" t="s">
         <v>73</v>
       </c>
@@ -29472,7 +29478,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A559" s="1" t="s">
         <v>73</v>
       </c>
@@ -29498,7 +29504,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A560" s="1" t="s">
         <v>73</v>
       </c>
@@ -29524,7 +29530,7 @@
         <v>2754</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A561" s="1" t="s">
         <v>73</v>
       </c>
@@ -29550,7 +29556,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A562" s="1" t="s">
         <v>73</v>
       </c>
@@ -29576,7 +29582,7 @@
         <v>2766</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A563" s="1" t="s">
         <v>73</v>
       </c>
@@ -29602,7 +29608,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A564" s="1" t="s">
         <v>73</v>
       </c>
@@ -29628,7 +29634,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A565" s="1" t="s">
         <v>73</v>
       </c>
@@ -29654,7 +29660,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="566" spans="1:8">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A566" s="1" t="s">
         <v>73</v>
       </c>
@@ -29680,7 +29686,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A567" s="1" t="s">
         <v>73</v>
       </c>
@@ -29706,7 +29712,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="568" spans="1:8">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A568" s="1" t="s">
         <v>73</v>
       </c>
@@ -29732,7 +29738,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A569" s="1" t="s">
         <v>73</v>
       </c>
@@ -29758,7 +29764,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="570" spans="1:8">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A570" s="1" t="s">
         <v>73</v>
       </c>
@@ -29784,7 +29790,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A571" s="1" t="s">
         <v>73</v>
       </c>
@@ -29810,7 +29816,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A572" s="1" t="s">
         <v>73</v>
       </c>
@@ -29836,7 +29842,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A573" s="1" t="s">
         <v>73</v>
       </c>
@@ -29862,7 +29868,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A574" s="1" t="s">
         <v>73</v>
       </c>
@@ -29888,7 +29894,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A575" s="1" t="s">
         <v>73</v>
       </c>
@@ -29914,7 +29920,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A576" s="1" t="s">
         <v>73</v>
       </c>
@@ -29940,7 +29946,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A577" s="1" t="s">
         <v>73</v>
       </c>
@@ -29966,7 +29972,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A578" s="1" t="s">
         <v>73</v>
       </c>
@@ -29992,7 +29998,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A579" s="1" t="s">
         <v>73</v>
       </c>
@@ -30018,7 +30024,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A580" s="1" t="s">
         <v>73</v>
       </c>
@@ -30044,7 +30050,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A581" s="1" t="s">
         <v>74</v>
       </c>
@@ -30070,7 +30076,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A582" s="1" t="s">
         <v>74</v>
       </c>
@@ -30096,7 +30102,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A583" s="1" t="s">
         <v>74</v>
       </c>
@@ -30122,7 +30128,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A584" s="1" t="s">
         <v>74</v>
       </c>
@@ -30148,7 +30154,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A585" s="1" t="s">
         <v>74</v>
       </c>
@@ -30174,7 +30180,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A586" s="1" t="s">
         <v>74</v>
       </c>
@@ -30200,7 +30206,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A587" s="1" t="s">
         <v>74</v>
       </c>
@@ -30226,7 +30232,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A588" s="1" t="s">
         <v>74</v>
       </c>
@@ -30252,7 +30258,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A589" s="1" t="s">
         <v>74</v>
       </c>
@@ -30278,7 +30284,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A590" s="1" t="s">
         <v>74</v>
       </c>
@@ -30304,7 +30310,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A591" s="1" t="s">
         <v>74</v>
       </c>
@@ -30330,7 +30336,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A592" s="1" t="s">
         <v>74</v>
       </c>
@@ -30356,7 +30362,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A593" s="1" t="s">
         <v>74</v>
       </c>
@@ -30382,7 +30388,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A594" s="1" t="s">
         <v>74</v>
       </c>
@@ -30408,7 +30414,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A595" s="1" t="s">
         <v>74</v>
       </c>
@@ -30434,7 +30440,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A596" s="1" t="s">
         <v>74</v>
       </c>
@@ -30460,7 +30466,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A597" s="1" t="s">
         <v>74</v>
       </c>
@@ -30486,7 +30492,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A598" s="1" t="s">
         <v>74</v>
       </c>
@@ -30512,7 +30518,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A599" s="1" t="s">
         <v>74</v>
       </c>
@@ -30538,7 +30544,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A600" s="1" t="s">
         <v>74</v>
       </c>
@@ -30564,7 +30570,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A601" s="1" t="s">
         <v>74</v>
       </c>
@@ -30590,7 +30596,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A602" s="1" t="s">
         <v>74</v>
       </c>
@@ -30616,7 +30622,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="603" spans="1:8">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A603" s="1" t="s">
         <v>74</v>
       </c>
@@ -30642,7 +30648,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="604" spans="1:8">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A604" s="1" t="s">
         <v>74</v>
       </c>
@@ -30668,7 +30674,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A605" s="1" t="s">
         <v>74</v>
       </c>
@@ -30694,7 +30700,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A606" s="1" t="s">
         <v>74</v>
       </c>
@@ -30720,7 +30726,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="607" spans="1:8">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A607" s="1" t="s">
         <v>74</v>
       </c>
@@ -30746,7 +30752,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A608" s="1" t="s">
         <v>74</v>
       </c>
@@ -30772,7 +30778,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A609" s="1" t="s">
         <v>74</v>
       </c>
@@ -30798,7 +30804,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A610" s="1" t="s">
         <v>74</v>
       </c>
@@ -30824,7 +30830,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A611" s="1" t="s">
         <v>75</v>
       </c>
@@ -30850,7 +30856,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A612" s="1" t="s">
         <v>75</v>
       </c>
@@ -30876,7 +30882,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A613" s="1" t="s">
         <v>75</v>
       </c>
@@ -30902,7 +30908,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A614" s="1" t="s">
         <v>75</v>
       </c>
@@ -30928,7 +30934,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A615" s="1" t="s">
         <v>75</v>
       </c>
@@ -30954,7 +30960,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A616" s="1" t="s">
         <v>75</v>
       </c>
@@ -30980,7 +30986,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A617" s="1" t="s">
         <v>75</v>
       </c>
@@ -31006,7 +31012,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A618" s="1" t="s">
         <v>75</v>
       </c>
@@ -31032,7 +31038,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A619" s="1" t="s">
         <v>75</v>
       </c>
@@ -31058,7 +31064,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A620" s="1" t="s">
         <v>75</v>
       </c>
@@ -31084,7 +31090,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A621" s="1" t="s">
         <v>75</v>
       </c>
@@ -31110,7 +31116,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A622" s="1" t="s">
         <v>75</v>
       </c>
@@ -31136,7 +31142,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A623" s="1" t="s">
         <v>75</v>
       </c>
@@ -31162,7 +31168,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A624" s="1" t="s">
         <v>75</v>
       </c>
@@ -31188,7 +31194,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A625" s="1" t="s">
         <v>75</v>
       </c>
@@ -31214,7 +31220,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A626" s="1" t="s">
         <v>75</v>
       </c>
@@ -31240,7 +31246,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A627" s="1" t="s">
         <v>75</v>
       </c>
@@ -31266,7 +31272,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A628" s="1" t="s">
         <v>75</v>
       </c>
@@ -31292,7 +31298,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A629" s="1" t="s">
         <v>75</v>
       </c>
@@ -31318,7 +31324,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A630" s="1" t="s">
         <v>75</v>
       </c>
@@ -31344,7 +31350,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A631" s="1" t="s">
         <v>75</v>
       </c>
@@ -31370,7 +31376,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A632" s="1" t="s">
         <v>75</v>
       </c>
@@ -31396,7 +31402,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A633" s="1" t="s">
         <v>75</v>
       </c>
@@ -31422,7 +31428,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A634" s="1" t="s">
         <v>75</v>
       </c>
@@ -31448,7 +31454,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A635" s="1" t="s">
         <v>75</v>
       </c>
@@ -31474,7 +31480,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A636" s="1" t="s">
         <v>75</v>
       </c>
@@ -31500,7 +31506,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A637" s="1" t="s">
         <v>75</v>
       </c>
@@ -31526,7 +31532,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A638" s="1" t="s">
         <v>75</v>
       </c>
@@ -31552,7 +31558,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A639" s="1" t="s">
         <v>75</v>
       </c>
@@ -31578,7 +31584,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="640" spans="1:8">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A640" s="1" t="s">
         <v>75</v>
       </c>
@@ -31604,7 +31610,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="641" spans="1:8">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A641" s="1" t="s">
         <v>75</v>
       </c>
@@ -31630,7 +31636,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="642" spans="1:8">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A642" s="1" t="s">
         <v>75</v>
       </c>
@@ -31656,7 +31662,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A643" s="1" t="s">
         <v>75</v>
       </c>
@@ -31682,7 +31688,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="644" spans="1:8">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A644" s="1" t="s">
         <v>75</v>
       </c>
@@ -31708,7 +31714,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A645" s="1" t="s">
         <v>75</v>
       </c>
@@ -31734,7 +31740,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A646" s="1" t="s">
         <v>75</v>
       </c>
@@ -31760,7 +31766,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A647" s="1" t="s">
         <v>75</v>
       </c>
@@ -31786,7 +31792,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A648" s="1" t="s">
         <v>75</v>
       </c>
@@ -31812,7 +31818,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A649" s="1" t="s">
         <v>75</v>
       </c>
@@ -31838,7 +31844,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A650" s="1" t="s">
         <v>75</v>
       </c>
@@ -31864,7 +31870,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A651" s="1" t="s">
         <v>75</v>
       </c>
@@ -31890,7 +31896,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A652" s="1" t="s">
         <v>75</v>
       </c>
@@ -31916,7 +31922,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A653" s="1" t="s">
         <v>75</v>
       </c>
@@ -31942,7 +31948,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A654" s="1" t="s">
         <v>75</v>
       </c>
@@ -31968,7 +31974,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A655" s="1" t="s">
         <v>75</v>
       </c>
@@ -31994,7 +32000,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A656" s="1" t="s">
         <v>75</v>
       </c>
@@ -32020,7 +32026,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A657" s="1" t="s">
         <v>75</v>
       </c>
@@ -32046,7 +32052,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A658" s="1" t="s">
         <v>75</v>
       </c>
@@ -32072,7 +32078,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A659" s="1" t="s">
         <v>75</v>
       </c>
@@ -32098,7 +32104,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A660" s="1" t="s">
         <v>75</v>
       </c>
@@ -32124,7 +32130,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A661" s="1" t="s">
         <v>75</v>
       </c>
@@ -32150,7 +32156,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A662" s="1" t="s">
         <v>75</v>
       </c>
@@ -32176,7 +32182,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A663" s="1" t="s">
         <v>75</v>
       </c>
@@ -32202,7 +32208,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A664" s="1" t="s">
         <v>75</v>
       </c>
@@ -32228,7 +32234,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A665" s="1" t="s">
         <v>75</v>
       </c>
@@ -32254,7 +32260,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A666" s="1" t="s">
         <v>75</v>
       </c>
@@ -32280,7 +32286,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A667" s="1" t="s">
         <v>75</v>
       </c>
@@ -32306,7 +32312,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A668" s="1" t="s">
         <v>75</v>
       </c>
@@ -32332,7 +32338,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A669" s="1" t="s">
         <v>75</v>
       </c>
@@ -32358,7 +32364,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A670" s="1" t="s">
         <v>75</v>
       </c>
@@ -32384,7 +32390,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A671" s="1" t="s">
         <v>80</v>
       </c>
@@ -32410,7 +32416,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A672" s="1" t="s">
         <v>80</v>
       </c>
@@ -32436,7 +32442,7 @@
         <v>3343</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A673" s="1" t="s">
         <v>80</v>
       </c>
@@ -32462,7 +32468,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A674" s="1" t="s">
         <v>80</v>
       </c>
@@ -32488,7 +32494,7 @@
         <v>3355</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A675" s="1" t="s">
         <v>80</v>
       </c>
@@ -32514,7 +32520,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A676" s="1" t="s">
         <v>80</v>
       </c>
@@ -32540,7 +32546,7 @@
         <v>3366</v>
       </c>
     </row>
-    <row r="677" spans="1:8">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A677" s="1" t="s">
         <v>80</v>
       </c>
@@ -32566,7 +32572,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="678" spans="1:8">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A678" s="1" t="s">
         <v>80</v>
       </c>
@@ -32592,7 +32598,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="679" spans="1:8">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A679" s="1" t="s">
         <v>80</v>
       </c>
@@ -32618,7 +32624,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A680" s="1" t="s">
         <v>80</v>
       </c>
@@ -32644,7 +32650,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="681" spans="1:8">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A681" s="1" t="s">
         <v>80</v>
       </c>
@@ -32670,7 +32676,7 @@
         <v>3390</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A682" s="1" t="s">
         <v>80</v>
       </c>
@@ -32696,7 +32702,7 @@
         <v>3396</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A683" s="1" t="s">
         <v>80</v>
       </c>
@@ -32722,7 +32728,7 @@
         <v>3402</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A684" s="1" t="s">
         <v>80</v>
       </c>
@@ -32748,7 +32754,7 @@
         <v>3401</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A685" s="1" t="s">
         <v>80</v>
       </c>
@@ -32774,7 +32780,7 @@
         <v>3404</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A686" s="1" t="s">
         <v>80</v>
       </c>
@@ -32800,7 +32806,7 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A687" s="1" t="s">
         <v>80</v>
       </c>
@@ -32826,7 +32832,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A688" s="1" t="s">
         <v>80</v>
       </c>
@@ -32852,7 +32858,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A689" s="1" t="s">
         <v>80</v>
       </c>
@@ -32878,7 +32884,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A690" s="1" t="s">
         <v>80</v>
       </c>
@@ -32904,7 +32910,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A691" s="1" t="s">
         <v>80</v>
       </c>
@@ -32930,7 +32936,7 @@
         <v>3412</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A692" s="1" t="s">
         <v>83</v>
       </c>
@@ -32956,7 +32962,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A693" s="1" t="s">
         <v>83</v>
       </c>
@@ -32982,7 +32988,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A694" s="1" t="s">
         <v>83</v>
       </c>
@@ -33008,7 +33014,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A695" s="1" t="s">
         <v>83</v>
       </c>
@@ -33034,7 +33040,7 @@
         <v>3456</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A696" s="1" t="s">
         <v>83</v>
       </c>
@@ -33060,7 +33066,7 @@
         <v>3462</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A697" s="1" t="s">
         <v>83</v>
       </c>
@@ -33086,7 +33092,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A698" s="1" t="s">
         <v>83</v>
       </c>
@@ -33112,7 +33118,7 @@
         <v>3473</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A699" s="1" t="s">
         <v>83</v>
       </c>
@@ -33138,7 +33144,7 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A700" s="1" t="s">
         <v>83</v>
       </c>
@@ -33164,7 +33170,7 @@
         <v>3485</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A701" s="1" t="s">
         <v>83</v>
       </c>
@@ -33190,7 +33196,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A702" s="1" t="s">
         <v>83</v>
       </c>
@@ -33216,7 +33222,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A703" s="1" t="s">
         <v>83</v>
       </c>
@@ -33242,7 +33248,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A704" s="1" t="s">
         <v>83</v>
       </c>
@@ -33268,7 +33274,7 @@
         <v>3509</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A705" s="1" t="s">
         <v>83</v>
       </c>
@@ -33294,7 +33300,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A706" s="1" t="s">
         <v>83</v>
       </c>
@@ -33320,7 +33326,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A707" s="1" t="s">
         <v>83</v>
       </c>
@@ -33346,7 +33352,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A708" s="1" t="s">
         <v>83</v>
       </c>
@@ -33372,7 +33378,7 @@
         <v>3532</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A709" s="1" t="s">
         <v>83</v>
       </c>
@@ -33398,7 +33404,7 @@
         <v>3538</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A710" s="1" t="s">
         <v>83</v>
       </c>
@@ -33424,7 +33430,7 @@
         <v>3544</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A711" s="1" t="s">
         <v>83</v>
       </c>
@@ -33450,7 +33456,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A712" s="1" t="s">
         <v>83</v>
       </c>
@@ -33476,7 +33482,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A713" s="1" t="s">
         <v>83</v>
       </c>
@@ -33502,7 +33508,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="714" spans="1:8">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A714" s="1" t="s">
         <v>83</v>
       </c>
@@ -33528,7 +33534,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="715" spans="1:8">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A715" s="1" t="s">
         <v>83</v>
       </c>
@@ -33554,7 +33560,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="716" spans="1:8">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A716" s="1" t="s">
         <v>83</v>
       </c>
@@ -33580,7 +33586,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A717" s="1" t="s">
         <v>83</v>
       </c>
@@ -33606,7 +33612,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="718" spans="1:8">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A718" s="1" t="s">
         <v>83</v>
       </c>
@@ -33632,7 +33638,7 @@
         <v>3591</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A719" s="1" t="s">
         <v>83</v>
       </c>
@@ -33658,7 +33664,7 @@
         <v>3596</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A720" s="1" t="s">
         <v>83</v>
       </c>
@@ -33684,7 +33690,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A721" s="1" t="s">
         <v>83</v>
       </c>
@@ -33710,7 +33716,7 @@
         <v>3608</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A722" s="1" t="s">
         <v>83</v>
       </c>
@@ -33736,7 +33742,7 @@
         <v>3612</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A723" s="1" t="s">
         <v>83</v>
       </c>
@@ -33762,7 +33768,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A724" s="1" t="s">
         <v>83</v>
       </c>
@@ -33788,7 +33794,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A725" s="1" t="s">
         <v>83</v>
       </c>
@@ -33814,7 +33820,7 @@
         <v>3629</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A726" s="1" t="s">
         <v>83</v>
       </c>
@@ -33840,7 +33846,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A727" s="1" t="s">
         <v>83</v>
       </c>
@@ -33866,7 +33872,7 @@
         <v>3638</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A728" s="1" t="s">
         <v>83</v>
       </c>
@@ -33892,7 +33898,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A729" s="1" t="s">
         <v>83</v>
       </c>
@@ -33918,7 +33924,7 @@
         <v>3650</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A730" s="1" t="s">
         <v>83</v>
       </c>
@@ -33944,7 +33950,7 @@
         <v>3610</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A731" s="1" t="s">
         <v>83</v>
       </c>
@@ -33970,7 +33976,7 @@
         <v>3661</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A732" s="1" t="s">
         <v>83</v>
       </c>
@@ -33996,7 +34002,7 @@
         <v>3667</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A733" s="1" t="s">
         <v>83</v>
       </c>
@@ -34022,7 +34028,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A734" s="1" t="s">
         <v>83</v>
       </c>
@@ -34048,7 +34054,7 @@
         <v>3573</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A735" s="1" t="s">
         <v>83</v>
       </c>
@@ -34074,7 +34080,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A736" s="1" t="s">
         <v>83</v>
       </c>
@@ -34100,7 +34106,7 @@
         <v>3686</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A737" s="1" t="s">
         <v>83</v>
       </c>
@@ -34126,7 +34132,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A738" s="1" t="s">
         <v>83</v>
       </c>
@@ -34152,7 +34158,7 @@
         <v>3694</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A739" s="1" t="s">
         <v>83</v>
       </c>
@@ -34178,7 +34184,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A740" s="1" t="s">
         <v>83</v>
       </c>
@@ -34204,7 +34210,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A741" s="1" t="s">
         <v>83</v>
       </c>
@@ -34230,7 +34236,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A742" s="1" t="s">
         <v>83</v>
       </c>
@@ -34256,7 +34262,7 @@
         <v>3711</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A743" s="1" t="s">
         <v>83</v>
       </c>
@@ -34282,7 +34288,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A744" s="1" t="s">
         <v>83</v>
       </c>
@@ -34308,7 +34314,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A745" s="1" t="s">
         <v>83</v>
       </c>
@@ -34334,7 +34340,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A746" s="1" t="s">
         <v>83</v>
       </c>
@@ -34360,7 +34366,7 @@
         <v>3735</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A747" s="1" t="s">
         <v>83</v>
       </c>
@@ -34386,7 +34392,7 @@
         <v>3741</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A748" s="1" t="s">
         <v>83</v>
       </c>
@@ -34412,7 +34418,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A749" s="1" t="s">
         <v>83</v>
       </c>
@@ -34438,7 +34444,7 @@
         <v>3749</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A750" s="1" t="s">
         <v>83</v>
       </c>
@@ -34464,7 +34470,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="751" spans="1:8">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A751" s="1" t="s">
         <v>83</v>
       </c>
@@ -34490,7 +34496,7 @@
         <v>3757</v>
       </c>
     </row>
-    <row r="752" spans="1:8">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A752" s="1" t="s">
         <v>83</v>
       </c>
@@ -34516,7 +34522,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A753" s="1" t="s">
         <v>83</v>
       </c>
@@ -34542,7 +34548,7 @@
         <v>3733</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A754" s="1" t="s">
         <v>83</v>
       </c>
@@ -34568,7 +34574,7 @@
         <v>3771</v>
       </c>
     </row>
-    <row r="755" spans="1:8">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A755" s="1" t="s">
         <v>83</v>
       </c>
@@ -34594,7 +34600,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A756" s="1" t="s">
         <v>83</v>
       </c>
@@ -34620,7 +34626,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A757" s="1" t="s">
         <v>83</v>
       </c>
@@ -34646,7 +34652,7 @@
         <v>3785</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A758" s="1" t="s">
         <v>83</v>
       </c>
@@ -34672,7 +34678,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A759" s="1" t="s">
         <v>83</v>
       </c>
@@ -34698,7 +34704,7 @@
         <v>3791</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A760" s="1" t="s">
         <v>83</v>
       </c>
@@ -34724,7 +34730,7 @@
         <v>3788</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A761" s="1" t="s">
         <v>83</v>
       </c>
@@ -34750,7 +34756,7 @@
         <v>3796</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A762" s="1" t="s">
         <v>83</v>
       </c>
@@ -34776,7 +34782,7 @@
         <v>3802</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A763" s="1" t="s">
         <v>83</v>
       </c>
@@ -34802,7 +34808,7 @@
         <v>3808</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A764" s="1" t="s">
         <v>83</v>
       </c>
@@ -34828,7 +34834,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A765" s="1" t="s">
         <v>83</v>
       </c>
@@ -34854,7 +34860,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A766" s="1" t="s">
         <v>83</v>
       </c>
@@ -34880,7 +34886,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A767" s="1" t="s">
         <v>83</v>
       </c>
@@ -34906,7 +34912,7 @@
         <v>3822</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A768" s="1" t="s">
         <v>83</v>
       </c>
@@ -34932,7 +34938,7 @@
         <v>3776</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A769" s="1" t="s">
         <v>83</v>
       </c>
@@ -34958,7 +34964,7 @@
         <v>3731</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A770" s="1" t="s">
         <v>83</v>
       </c>
@@ -34984,7 +34990,7 @@
         <v>3829</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A771" s="1" t="s">
         <v>83</v>
       </c>
@@ -35010,7 +35016,7 @@
         <v>3834</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A772" s="1" t="s">
         <v>83</v>
       </c>
@@ -35036,7 +35042,7 @@
         <v>3839</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A773" s="1" t="s">
         <v>83</v>
       </c>
@@ -35062,7 +35068,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A774" s="1" t="s">
         <v>83</v>
       </c>
@@ -35088,7 +35094,7 @@
         <v>3849</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A775" s="1" t="s">
         <v>83</v>
       </c>
@@ -35114,7 +35120,7 @@
         <v>3843</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A776" s="1" t="s">
         <v>83</v>
       </c>
@@ -35140,7 +35146,7 @@
         <v>3859</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A777" s="1" t="s">
         <v>83</v>
       </c>
@@ -35166,7 +35172,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A778" s="1" t="s">
         <v>83</v>
       </c>
@@ -35192,7 +35198,7 @@
         <v>3732</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A779" s="1" t="s">
         <v>83</v>
       </c>
@@ -35218,7 +35224,7 @@
         <v>3871</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A780" s="1" t="s">
         <v>83</v>
       </c>
@@ -35244,7 +35250,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A781" s="1" t="s">
         <v>83</v>
       </c>
@@ -35270,7 +35276,7 @@
         <v>3882</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A782" s="1" t="s">
         <v>83</v>
       </c>
@@ -35296,7 +35302,7 @@
         <v>3886</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A783" s="1" t="s">
         <v>83</v>
       </c>
@@ -35322,7 +35328,7 @@
         <v>3892</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A784" s="1" t="s">
         <v>83</v>
       </c>
@@ -35348,7 +35354,7 @@
         <v>3897</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A785" s="1" t="s">
         <v>83</v>
       </c>
@@ -35374,7 +35380,7 @@
         <v>3903</v>
       </c>
     </row>
-    <row r="786" spans="1:8">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A786" s="1" t="s">
         <v>83</v>
       </c>
@@ -35400,7 +35406,7 @@
         <v>3909</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A787" s="1" t="s">
         <v>83</v>
       </c>
@@ -35426,7 +35432,7 @@
         <v>3915</v>
       </c>
     </row>
-    <row r="788" spans="1:8">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A788" s="1" t="s">
         <v>83</v>
       </c>
@@ -35452,7 +35458,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="789" spans="1:8">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A789" s="1" t="s">
         <v>83</v>
       </c>
@@ -35478,7 +35484,7 @@
         <v>3927</v>
       </c>
     </row>
-    <row r="790" spans="1:8">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A790" s="1" t="s">
         <v>83</v>
       </c>
@@ -35504,7 +35510,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A791" s="1" t="s">
         <v>83</v>
       </c>
@@ -35530,7 +35536,7 @@
         <v>3938</v>
       </c>
     </row>
-    <row r="792" spans="1:8">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A792" s="1" t="s">
         <v>83</v>
       </c>
@@ -35556,7 +35562,7 @@
         <v>3944</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A793" s="1" t="s">
         <v>83</v>
       </c>
@@ -35582,7 +35588,7 @@
         <v>3950</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A794" s="1" t="s">
         <v>83</v>
       </c>
@@ -35608,7 +35614,7 @@
         <v>3956</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A795" s="1" t="s">
         <v>83</v>
       </c>
@@ -35634,7 +35640,7 @@
         <v>3961</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A796" s="1" t="s">
         <v>83</v>
       </c>
@@ -35660,7 +35666,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A797" s="1" t="s">
         <v>83</v>
       </c>
@@ -35686,7 +35692,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A798" s="1" t="s">
         <v>83</v>
       </c>
@@ -35712,7 +35718,7 @@
         <v>3979</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A799" s="1" t="s">
         <v>83</v>
       </c>
@@ -35738,7 +35744,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A800" s="1" t="s">
         <v>83</v>
       </c>
@@ -35764,7 +35770,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A801" s="1" t="s">
         <v>83</v>
       </c>
@@ -35790,7 +35796,7 @@
         <v>3996</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A802" s="1" t="s">
         <v>83</v>
       </c>
@@ -35816,7 +35822,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A803" s="1" t="s">
         <v>84</v>
       </c>
@@ -35842,7 +35848,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A804" s="1" t="s">
         <v>84</v>
       </c>
@@ -35868,7 +35874,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A805" s="1" t="s">
         <v>84</v>
       </c>
@@ -35894,7 +35900,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A806" s="1" t="s">
         <v>84</v>
       </c>
@@ -35920,7 +35926,7 @@
         <v>4026</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A807" s="1" t="s">
         <v>84</v>
       </c>
@@ -35946,7 +35952,7 @@
         <v>4032</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A808" s="1" t="s">
         <v>84</v>
       </c>
@@ -35972,7 +35978,7 @@
         <v>4038</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A809" s="1" t="s">
         <v>84</v>
       </c>
@@ -35998,7 +36004,7 @@
         <v>4043</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A810" s="1" t="s">
         <v>84</v>
       </c>
@@ -36024,7 +36030,7 @@
         <v>4049</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A811" s="1" t="s">
         <v>84</v>
       </c>
@@ -36050,7 +36056,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A812" s="1" t="s">
         <v>84</v>
       </c>
@@ -36076,7 +36082,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A813" s="1" t="s">
         <v>84</v>
       </c>
@@ -36102,7 +36108,7 @@
         <v>4062</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A814" s="1" t="s">
         <v>84</v>
       </c>
@@ -36128,7 +36134,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A815" s="1" t="s">
         <v>84</v>
       </c>
@@ -36154,7 +36160,7 @@
         <v>4069</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A816" s="1" t="s">
         <v>84</v>
       </c>
@@ -36180,7 +36186,7 @@
         <v>4075</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A817" s="1" t="s">
         <v>84</v>
       </c>
@@ -36206,7 +36212,7 @@
         <v>4078</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A818" s="1" t="s">
         <v>84</v>
       </c>
@@ -36232,7 +36238,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A819" s="1" t="s">
         <v>84</v>
       </c>
@@ -36258,7 +36264,7 @@
         <v>4090</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A820" s="1" t="s">
         <v>84</v>
       </c>
@@ -36284,7 +36290,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A821" s="1" t="s">
         <v>84</v>
       </c>
@@ -36310,7 +36316,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A822" s="1" t="s">
         <v>84</v>
       </c>
@@ -36336,7 +36342,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A823" s="1" t="s">
         <v>84</v>
       </c>
@@ -36362,7 +36368,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A824" s="1" t="s">
         <v>84</v>
       </c>
@@ -36388,7 +36394,7 @@
         <v>4106</v>
       </c>
     </row>
-    <row r="825" spans="1:8">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A825" s="1" t="s">
         <v>84</v>
       </c>
@@ -36414,7 +36420,7 @@
         <v>4112</v>
       </c>
     </row>
-    <row r="826" spans="1:8">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A826" s="1" t="s">
         <v>84</v>
       </c>
@@ -36440,7 +36446,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="827" spans="1:8">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A827" s="1" t="s">
         <v>84</v>
       </c>
@@ -36466,7 +36472,7 @@
         <v>4120</v>
       </c>
     </row>
-    <row r="828" spans="1:8">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A828" s="1" t="s">
         <v>84</v>
       </c>
@@ -36492,7 +36498,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="829" spans="1:8">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A829" s="1" t="s">
         <v>84</v>
       </c>
@@ -36518,7 +36524,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="830" spans="1:8">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A830" s="1" t="s">
         <v>84</v>
       </c>
@@ -36544,7 +36550,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="831" spans="1:8">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A831" s="1" t="s">
         <v>84</v>
       </c>
@@ -36570,7 +36576,7 @@
         <v>4131</v>
       </c>
     </row>
-    <row r="832" spans="1:8">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A832" s="1" t="s">
         <v>84</v>
       </c>
@@ -36596,7 +36602,7 @@
         <v>4084</v>
       </c>
     </row>
-    <row r="833" spans="1:8">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A833" s="1" t="s">
         <v>84</v>
       </c>
@@ -36622,7 +36628,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="834" spans="1:8">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A834" s="1" t="s">
         <v>84</v>
       </c>
@@ -36648,7 +36654,7 @@
         <v>4115</v>
       </c>
     </row>
-    <row r="835" spans="1:8">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A835" s="1" t="s">
         <v>84</v>
       </c>
@@ -36674,7 +36680,7 @@
         <v>4114</v>
       </c>
     </row>
-    <row r="836" spans="1:8">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A836" s="1" t="s">
         <v>84</v>
       </c>
@@ -36700,7 +36706,7 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="837" spans="1:8">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A837" s="1" t="s">
         <v>84</v>
       </c>
@@ -36726,7 +36732,7 @@
         <v>4092</v>
       </c>
     </row>
-    <row r="838" spans="1:8">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A838" s="1" t="s">
         <v>84</v>
       </c>
@@ -36752,7 +36758,7 @@
         <v>4135</v>
       </c>
     </row>
-    <row r="839" spans="1:8">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A839" s="1" t="s">
         <v>84</v>
       </c>
@@ -36778,7 +36784,7 @@
         <v>4155</v>
       </c>
     </row>
-    <row r="840" spans="1:8">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A840" s="1" t="s">
         <v>84</v>
       </c>
@@ -36804,7 +36810,7 @@
         <v>4161</v>
       </c>
     </row>
-    <row r="841" spans="1:8">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A841" s="1" t="s">
         <v>84</v>
       </c>
@@ -36830,7 +36836,7 @@
         <v>4167</v>
       </c>
     </row>
-    <row r="842" spans="1:8">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A842" s="1" t="s">
         <v>84</v>
       </c>
@@ -36856,7 +36862,7 @@
         <v>4173</v>
       </c>
     </row>
-    <row r="843" spans="1:8">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A843" s="1" t="s">
         <v>84</v>
       </c>
@@ -36882,7 +36888,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="844" spans="1:8">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A844" s="1" t="s">
         <v>84</v>
       </c>
@@ -36908,7 +36914,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="845" spans="1:8">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A845" s="1" t="s">
         <v>84</v>
       </c>
@@ -36934,7 +36940,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="846" spans="1:8">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A846" s="1" t="s">
         <v>84</v>
       </c>
@@ -36960,7 +36966,7 @@
         <v>4175</v>
       </c>
     </row>
-    <row r="847" spans="1:8">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A847" s="1" t="s">
         <v>84</v>
       </c>
@@ -36986,7 +36992,7 @@
         <v>4194</v>
       </c>
     </row>
-    <row r="848" spans="1:8">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A848" s="1" t="s">
         <v>84</v>
       </c>
@@ -37012,7 +37018,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="849" spans="1:8">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A849" s="1" t="s">
         <v>84</v>
       </c>
@@ -37038,7 +37044,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="850" spans="1:8">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A850" s="1" t="s">
         <v>84</v>
       </c>
@@ -37064,7 +37070,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="851" spans="1:8">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A851" s="1" t="s">
         <v>84</v>
       </c>
@@ -37090,7 +37096,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="852" spans="1:8">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A852" s="1" t="s">
         <v>84</v>
       </c>
@@ -37116,7 +37122,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="853" spans="1:8">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A853" s="1" t="s">
         <v>84</v>
       </c>
@@ -37142,7 +37148,7 @@
         <v>4217</v>
       </c>
     </row>
-    <row r="854" spans="1:8">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A854" s="1" t="s">
         <v>84</v>
       </c>
@@ -37168,7 +37174,7 @@
         <v>4223</v>
       </c>
     </row>
-    <row r="855" spans="1:8">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A855" s="1" t="s">
         <v>84</v>
       </c>
@@ -37194,7 +37200,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="856" spans="1:8">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A856" s="1" t="s">
         <v>84</v>
       </c>
@@ -37220,7 +37226,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="857" spans="1:8">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A857" s="1" t="s">
         <v>84</v>
       </c>
@@ -37246,7 +37252,7 @@
         <v>4237</v>
       </c>
     </row>
-    <row r="858" spans="1:8">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A858" s="1" t="s">
         <v>84</v>
       </c>
@@ -37272,7 +37278,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="859" spans="1:8">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A859" s="1" t="s">
         <v>84</v>
       </c>
@@ -37298,7 +37304,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="860" spans="1:8">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A860" s="1" t="s">
         <v>84</v>
       </c>
@@ -37324,7 +37330,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="861" spans="1:8">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A861" s="1" t="s">
         <v>84</v>
       </c>
@@ -37350,7 +37356,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="862" spans="1:8">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A862" s="1" t="s">
         <v>84</v>
       </c>
@@ -37376,7 +37382,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="863" spans="1:8">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A863" s="1" t="s">
         <v>84</v>
       </c>
@@ -37402,7 +37408,7 @@
         <v>4256</v>
       </c>
     </row>
-    <row r="864" spans="1:8">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A864" s="1" t="s">
         <v>84</v>
       </c>
@@ -37428,7 +37434,7 @@
         <v>3723</v>
       </c>
     </row>
-    <row r="865" spans="1:8">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A865" s="1" t="s">
         <v>84</v>
       </c>
@@ -37454,7 +37460,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="866" spans="1:8">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A866" s="1" t="s">
         <v>84</v>
       </c>
@@ -37480,7 +37486,7 @@
         <v>4264</v>
       </c>
     </row>
-    <row r="867" spans="1:8">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A867" s="1" t="s">
         <v>84</v>
       </c>
@@ -37506,7 +37512,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="868" spans="1:8">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A868" s="1" t="s">
         <v>84</v>
       </c>
@@ -37532,7 +37538,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="869" spans="1:8">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A869" s="1" t="s">
         <v>84</v>
       </c>
@@ -37558,7 +37564,7 @@
         <v>4274</v>
       </c>
     </row>
-    <row r="870" spans="1:8">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A870" s="1" t="s">
         <v>84</v>
       </c>
@@ -37584,7 +37590,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="871" spans="1:8">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A871" s="1" t="s">
         <v>84</v>
       </c>
@@ -37610,7 +37616,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="872" spans="1:8">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A872" s="1" t="s">
         <v>84</v>
       </c>
@@ -37636,7 +37642,7 @@
         <v>3705</v>
       </c>
     </row>
-    <row r="873" spans="1:8">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A873" s="1" t="s">
         <v>84</v>
       </c>
@@ -37662,7 +37668,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="874" spans="1:8">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A874" s="1" t="s">
         <v>84</v>
       </c>
@@ -37688,7 +37694,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="875" spans="1:8">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A875" s="1" t="s">
         <v>84</v>
       </c>
@@ -37714,7 +37720,7 @@
         <v>4294</v>
       </c>
     </row>
-    <row r="876" spans="1:8">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A876" s="1" t="s">
         <v>84</v>
       </c>
@@ -37740,7 +37746,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="877" spans="1:8">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A877" s="1" t="s">
         <v>84</v>
       </c>
@@ -37766,7 +37772,7 @@
         <v>4304</v>
       </c>
     </row>
-    <row r="878" spans="1:8">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A878" s="1" t="s">
         <v>84</v>
       </c>
@@ -37792,7 +37798,7 @@
         <v>4310</v>
       </c>
     </row>
-    <row r="879" spans="1:8">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A879" s="1" t="s">
         <v>84</v>
       </c>
@@ -37818,7 +37824,7 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="880" spans="1:8">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A880" s="1" t="s">
         <v>84</v>
       </c>
@@ -37844,7 +37850,7 @@
         <v>4319</v>
       </c>
     </row>
-    <row r="881" spans="1:8">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A881" s="1" t="s">
         <v>84</v>
       </c>
@@ -37870,7 +37876,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="882" spans="1:8">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A882" s="1" t="s">
         <v>84</v>
       </c>
@@ -37896,7 +37902,7 @@
         <v>4331</v>
       </c>
     </row>
-    <row r="883" spans="1:8">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A883" s="1" t="s">
         <v>84</v>
       </c>
@@ -37922,7 +37928,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="884" spans="1:8">
+    <row r="884" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A884" s="1" t="s">
         <v>84</v>
       </c>
@@ -37948,7 +37954,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="885" spans="1:8">
+    <row r="885" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A885" s="1" t="s">
         <v>84</v>
       </c>
@@ -37974,7 +37980,7 @@
         <v>4339</v>
       </c>
     </row>
-    <row r="886" spans="1:8">
+    <row r="886" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A886" s="1" t="s">
         <v>84</v>
       </c>
@@ -38000,7 +38006,7 @@
         <v>4344</v>
       </c>
     </row>
-    <row r="887" spans="1:8">
+    <row r="887" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A887" s="1" t="s">
         <v>84</v>
       </c>
@@ -38026,7 +38032,7 @@
         <v>4350</v>
       </c>
     </row>
-    <row r="888" spans="1:8">
+    <row r="888" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A888" s="1" t="s">
         <v>84</v>
       </c>
@@ -38052,7 +38058,7 @@
         <v>4356</v>
       </c>
     </row>
-    <row r="889" spans="1:8">
+    <row r="889" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A889" s="1" t="s">
         <v>84</v>
       </c>
@@ -38078,7 +38084,7 @@
         <v>4359</v>
       </c>
     </row>
-    <row r="890" spans="1:8">
+    <row r="890" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A890" s="1" t="s">
         <v>84</v>
       </c>
@@ -38104,7 +38110,7 @@
         <v>4365</v>
       </c>
     </row>
-    <row r="891" spans="1:8">
+    <row r="891" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A891" s="1" t="s">
         <v>84</v>
       </c>
@@ -38130,7 +38136,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="892" spans="1:8">
+    <row r="892" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A892" s="1" t="s">
         <v>84</v>
       </c>
@@ -38156,7 +38162,7 @@
         <v>4374</v>
       </c>
     </row>
-    <row r="893" spans="1:8">
+    <row r="893" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A893" s="1" t="s">
         <v>84</v>
       </c>
@@ -38182,7 +38188,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="894" spans="1:8">
+    <row r="894" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A894" s="1" t="s">
         <v>84</v>
       </c>
@@ -38208,7 +38214,7 @@
         <v>4385</v>
       </c>
     </row>
-    <row r="895" spans="1:8">
+    <row r="895" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A895" s="1" t="s">
         <v>84</v>
       </c>
@@ -38234,7 +38240,7 @@
         <v>3704</v>
       </c>
     </row>
-    <row r="896" spans="1:8">
+    <row r="896" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A896" s="1" t="s">
         <v>84</v>
       </c>
@@ -38260,7 +38266,7 @@
         <v>4392</v>
       </c>
     </row>
-    <row r="897" spans="1:8">
+    <row r="897" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A897" s="1" t="s">
         <v>84</v>
       </c>
@@ -38286,7 +38292,7 @@
         <v>4373</v>
       </c>
     </row>
-    <row r="898" spans="1:8">
+    <row r="898" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A898" s="1" t="s">
         <v>84</v>
       </c>
@@ -38312,7 +38318,7 @@
         <v>4402</v>
       </c>
     </row>
-    <row r="899" spans="1:8">
+    <row r="899" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A899" s="1" t="s">
         <v>84</v>
       </c>
@@ -38338,7 +38344,7 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="900" spans="1:8">
+    <row r="900" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A900" s="1" t="s">
         <v>84</v>
       </c>
@@ -38364,7 +38370,7 @@
         <v>4411</v>
       </c>
     </row>
-    <row r="901" spans="1:8">
+    <row r="901" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A901" s="1" t="s">
         <v>84</v>
       </c>
@@ -38390,7 +38396,7 @@
         <v>4417</v>
       </c>
     </row>
-    <row r="902" spans="1:8">
+    <row r="902" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A902" s="1" t="s">
         <v>84</v>
       </c>
@@ -38416,7 +38422,7 @@
         <v>4423</v>
       </c>
     </row>
-    <row r="903" spans="1:8">
+    <row r="903" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A903" s="1" t="s">
         <v>84</v>
       </c>
@@ -38442,7 +38448,7 @@
         <v>4428</v>
       </c>
     </row>
-    <row r="904" spans="1:8">
+    <row r="904" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A904" s="1" t="s">
         <v>84</v>
       </c>
@@ -38468,7 +38474,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="905" spans="1:8">
+    <row r="905" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A905" s="1" t="s">
         <v>84</v>
       </c>
@@ -38494,7 +38500,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="906" spans="1:8">
+    <row r="906" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A906" s="1" t="s">
         <v>84</v>
       </c>
@@ -38520,7 +38526,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="907" spans="1:8">
+    <row r="907" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A907" s="1" t="s">
         <v>84</v>
       </c>
@@ -38546,7 +38552,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="908" spans="1:8">
+    <row r="908" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A908" s="1" t="s">
         <v>84</v>
       </c>
@@ -38572,7 +38578,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="909" spans="1:8">
+    <row r="909" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A909" s="1" t="s">
         <v>84</v>
       </c>
@@ -38598,7 +38604,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="910" spans="1:8">
+    <row r="910" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A910" s="1" t="s">
         <v>84</v>
       </c>
@@ -38624,7 +38630,7 @@
         <v>4231</v>
       </c>
     </row>
-    <row r="911" spans="1:8">
+    <row r="911" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A911" s="1" t="s">
         <v>84</v>
       </c>
@@ -38650,7 +38656,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="912" spans="1:8">
+    <row r="912" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A912" s="1" t="s">
         <v>84</v>
       </c>
@@ -38676,7 +38682,7 @@
         <v>4476</v>
       </c>
     </row>
-    <row r="913" spans="1:8">
+    <row r="913" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A913" s="1" t="s">
         <v>84</v>
       </c>
@@ -38702,7 +38708,7 @@
         <v>4481</v>
       </c>
     </row>
-    <row r="914" spans="1:8">
+    <row r="914" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A914" s="1" t="s">
         <v>84</v>
       </c>
@@ -38728,7 +38734,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="915" spans="1:8">
+    <row r="915" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A915" s="1" t="s">
         <v>84</v>
       </c>
@@ -38754,7 +38760,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="916" spans="1:8">
+    <row r="916" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A916" s="1" t="s">
         <v>84</v>
       </c>
@@ -38780,7 +38786,7 @@
         <v>4498</v>
       </c>
     </row>
-    <row r="917" spans="1:8">
+    <row r="917" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A917" s="1" t="s">
         <v>84</v>
       </c>
@@ -38806,7 +38812,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="918" spans="1:8">
+    <row r="918" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A918" s="1" t="s">
         <v>84</v>
       </c>
@@ -38832,7 +38838,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="919" spans="1:8">
+    <row r="919" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A919" s="1" t="s">
         <v>84</v>
       </c>
@@ -38858,7 +38864,7 @@
         <v>4515</v>
       </c>
     </row>
-    <row r="920" spans="1:8">
+    <row r="920" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A920" s="1" t="s">
         <v>84</v>
       </c>
@@ -38884,7 +38890,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="921" spans="1:8">
+    <row r="921" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A921" s="1" t="s">
         <v>84</v>
       </c>
@@ -38910,7 +38916,7 @@
         <v>4517</v>
       </c>
     </row>
-    <row r="922" spans="1:8">
+    <row r="922" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A922" s="1" t="s">
         <v>84</v>
       </c>
@@ -38936,7 +38942,7 @@
         <v>4528</v>
       </c>
     </row>
-    <row r="923" spans="1:8">
+    <row r="923" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A923" s="1" t="s">
         <v>84</v>
       </c>
@@ -38962,7 +38968,7 @@
         <v>4534</v>
       </c>
     </row>
-    <row r="924" spans="1:8">
+    <row r="924" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A924" s="1" t="s">
         <v>84</v>
       </c>
@@ -38988,7 +38994,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="925" spans="1:8">
+    <row r="925" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A925" s="1" t="s">
         <v>84</v>
       </c>
@@ -39014,7 +39020,7 @@
         <v>4463</v>
       </c>
     </row>
-    <row r="926" spans="1:8">
+    <row r="926" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A926" s="1" t="s">
         <v>84</v>
       </c>
@@ -39040,7 +39046,7 @@
         <v>3743</v>
       </c>
     </row>
-    <row r="927" spans="1:8">
+    <row r="927" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A927" s="1" t="s">
         <v>84</v>
       </c>
@@ -39066,7 +39072,7 @@
         <v>4473</v>
       </c>
     </row>
-    <row r="928" spans="1:8">
+    <row r="928" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A928" s="1" t="s">
         <v>84</v>
       </c>
@@ -39092,7 +39098,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="929" spans="1:8">
+    <row r="929" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A929" s="1" t="s">
         <v>84</v>
       </c>
@@ -39118,7 +39124,7 @@
         <v>4519</v>
       </c>
     </row>
-    <row r="930" spans="1:8">
+    <row r="930" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A930" s="1" t="s">
         <v>84</v>
       </c>
@@ -39144,7 +39150,7 @@
         <v>4546</v>
       </c>
     </row>
-    <row r="931" spans="1:8">
+    <row r="931" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A931" s="1" t="s">
         <v>85</v>
       </c>
@@ -39170,7 +39176,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="932" spans="1:8">
+    <row r="932" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A932" s="1" t="s">
         <v>85</v>
       </c>
@@ -39196,7 +39202,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="933" spans="1:8">
+    <row r="933" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A933" s="1" t="s">
         <v>85</v>
       </c>
@@ -39222,7 +39228,7 @@
         <v>4566</v>
       </c>
     </row>
-    <row r="934" spans="1:8">
+    <row r="934" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A934" s="1" t="s">
         <v>85</v>
       </c>
@@ -39248,7 +39254,7 @@
         <v>4572</v>
       </c>
     </row>
-    <row r="935" spans="1:8">
+    <row r="935" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A935" s="1" t="s">
         <v>85</v>
       </c>
@@ -39274,7 +39280,7 @@
         <v>4576</v>
       </c>
     </row>
-    <row r="936" spans="1:8">
+    <row r="936" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A936" s="1" t="s">
         <v>85</v>
       </c>
@@ -39300,7 +39306,7 @@
         <v>4582</v>
       </c>
     </row>
-    <row r="937" spans="1:8">
+    <row r="937" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A937" s="1" t="s">
         <v>85</v>
       </c>
@@ -39326,7 +39332,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="938" spans="1:8">
+    <row r="938" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A938" s="1" t="s">
         <v>85</v>
       </c>
@@ -39352,7 +39358,7 @@
         <v>4590</v>
       </c>
     </row>
-    <row r="939" spans="1:8">
+    <row r="939" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A939" s="1" t="s">
         <v>85</v>
       </c>
@@ -39378,7 +39384,7 @@
         <v>4596</v>
       </c>
     </row>
-    <row r="940" spans="1:8">
+    <row r="940" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A940" s="1" t="s">
         <v>85</v>
       </c>
@@ -39404,7 +39410,7 @@
         <v>4601</v>
       </c>
     </row>
-    <row r="941" spans="1:8">
+    <row r="941" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A941" s="1" t="s">
         <v>85</v>
       </c>
@@ -39430,7 +39436,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="942" spans="1:8">
+    <row r="942" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A942" s="1" t="s">
         <v>85</v>
       </c>
@@ -39456,7 +39462,7 @@
         <v>4611</v>
       </c>
     </row>
-    <row r="943" spans="1:8">
+    <row r="943" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A943" s="1" t="s">
         <v>85</v>
       </c>
@@ -39482,7 +39488,7 @@
         <v>3825</v>
       </c>
     </row>
-    <row r="944" spans="1:8">
+    <row r="944" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A944" s="1" t="s">
         <v>85</v>
       </c>
@@ -39508,7 +39514,7 @@
         <v>4620</v>
       </c>
     </row>
-    <row r="945" spans="1:8">
+    <row r="945" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A945" s="1" t="s">
         <v>85</v>
       </c>
@@ -39534,7 +39540,7 @@
         <v>4626</v>
       </c>
     </row>
-    <row r="946" spans="1:8">
+    <row r="946" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A946" s="1" t="s">
         <v>85</v>
       </c>
@@ -39560,7 +39566,7 @@
         <v>4630</v>
       </c>
     </row>
-    <row r="947" spans="1:8">
+    <row r="947" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A947" s="1" t="s">
         <v>85</v>
       </c>
@@ -39586,7 +39592,7 @@
         <v>4584</v>
       </c>
     </row>
-    <row r="948" spans="1:8">
+    <row r="948" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A948" s="1" t="s">
         <v>85</v>
       </c>
@@ -39612,7 +39618,7 @@
         <v>4637</v>
       </c>
     </row>
-    <row r="949" spans="1:8">
+    <row r="949" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A949" s="1" t="s">
         <v>86</v>
       </c>
@@ -39638,7 +39644,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="950" spans="1:8">
+    <row r="950" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A950" s="1" t="s">
         <v>86</v>
       </c>
@@ -39664,7 +39670,7 @@
         <v>4648</v>
       </c>
     </row>
-    <row r="951" spans="1:8">
+    <row r="951" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A951" s="1" t="s">
         <v>86</v>
       </c>
@@ -39690,7 +39696,7 @@
         <v>4654</v>
       </c>
     </row>
-    <row r="952" spans="1:8">
+    <row r="952" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A952" s="1" t="s">
         <v>86</v>
       </c>
@@ -39716,7 +39722,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="953" spans="1:8">
+    <row r="953" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A953" s="1" t="s">
         <v>86</v>
       </c>
@@ -39742,7 +39748,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="954" spans="1:8">
+    <row r="954" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A954" s="1" t="s">
         <v>86</v>
       </c>
@@ -39768,7 +39774,7 @@
         <v>4669</v>
       </c>
     </row>
-    <row r="955" spans="1:8">
+    <row r="955" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A955" s="1" t="s">
         <v>86</v>
       </c>
@@ -39794,7 +39800,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="956" spans="1:8">
+    <row r="956" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A956" s="1" t="s">
         <v>86</v>
       </c>
@@ -39820,7 +39826,7 @@
         <v>4679</v>
       </c>
     </row>
-    <row r="957" spans="1:8">
+    <row r="957" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A957" s="1" t="s">
         <v>86</v>
       </c>
@@ -39846,7 +39852,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="958" spans="1:8">
+    <row r="958" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A958" s="1" t="s">
         <v>86</v>
       </c>
@@ -39872,7 +39878,7 @@
         <v>4685</v>
       </c>
     </row>
-    <row r="959" spans="1:8">
+    <row r="959" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A959" s="1" t="s">
         <v>86</v>
       </c>
@@ -39898,7 +39904,7 @@
         <v>4673</v>
       </c>
     </row>
-    <row r="960" spans="1:8">
+    <row r="960" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A960" s="1" t="s">
         <v>86</v>
       </c>
@@ -39924,7 +39930,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="961" spans="1:8">
+    <row r="961" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A961" s="1" t="s">
         <v>86</v>
       </c>
@@ -39950,7 +39956,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="962" spans="1:8">
+    <row r="962" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A962" s="1" t="s">
         <v>86</v>
       </c>
@@ -39976,7 +39982,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="963" spans="1:8">
+    <row r="963" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A963" s="1" t="s">
         <v>86</v>
       </c>
@@ -40002,7 +40008,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="964" spans="1:8">
+    <row r="964" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A964" s="1" t="s">
         <v>86</v>
       </c>
@@ -40028,7 +40034,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="965" spans="1:8">
+    <row r="965" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A965" s="1" t="s">
         <v>86</v>
       </c>
@@ -40054,7 +40060,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="966" spans="1:8">
+    <row r="966" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A966" s="1" t="s">
         <v>86</v>
       </c>
@@ -40080,7 +40086,7 @@
         <v>4689</v>
       </c>
     </row>
-    <row r="967" spans="1:8">
+    <row r="967" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A967" s="1" t="s">
         <v>86</v>
       </c>
@@ -40106,7 +40112,7 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="968" spans="1:8">
+    <row r="968" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A968" s="1" t="s">
         <v>86</v>
       </c>
@@ -40132,7 +40138,7 @@
         <v>4726</v>
       </c>
     </row>
-    <row r="969" spans="1:8">
+    <row r="969" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A969" s="1" t="s">
         <v>86</v>
       </c>
@@ -40158,7 +40164,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="970" spans="1:8">
+    <row r="970" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A970" s="1" t="s">
         <v>86</v>
       </c>
@@ -40184,7 +40190,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="971" spans="1:8">
+    <row r="971" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A971" s="1" t="s">
         <v>86</v>
       </c>
@@ -40210,7 +40216,7 @@
         <v>4741</v>
       </c>
     </row>
-    <row r="972" spans="1:8">
+    <row r="972" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A972" s="1" t="s">
         <v>86</v>
       </c>
@@ -40236,7 +40242,7 @@
         <v>4747</v>
       </c>
     </row>
-    <row r="973" spans="1:8">
+    <row r="973" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A973" s="1" t="s">
         <v>86</v>
       </c>
@@ -40262,7 +40268,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="974" spans="1:8">
+    <row r="974" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A974" s="1" t="s">
         <v>86</v>
       </c>
@@ -40288,7 +40294,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="975" spans="1:8">
+    <row r="975" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A975" s="1" t="s">
         <v>86</v>
       </c>
@@ -40314,7 +40320,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="976" spans="1:8">
+    <row r="976" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A976" s="1" t="s">
         <v>86</v>
       </c>
@@ -40340,7 +40346,7 @@
         <v>4761</v>
       </c>
     </row>
-    <row r="977" spans="1:8">
+    <row r="977" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A977" s="1" t="s">
         <v>86</v>
       </c>
@@ -40366,7 +40372,7 @@
         <v>4767</v>
       </c>
     </row>
-    <row r="978" spans="1:8">
+    <row r="978" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A978" s="1" t="s">
         <v>86</v>
       </c>
@@ -40392,7 +40398,7 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="979" spans="1:8">
+    <row r="979" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A979" s="1" t="s">
         <v>86</v>
       </c>
@@ -40418,7 +40424,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="980" spans="1:8">
+    <row r="980" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A980" s="1" t="s">
         <v>86</v>
       </c>
@@ -40444,7 +40450,7 @@
         <v>4773</v>
       </c>
     </row>
-    <row r="981" spans="1:8">
+    <row r="981" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A981" s="1" t="s">
         <v>86</v>
       </c>
@@ -40470,7 +40476,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="982" spans="1:8">
+    <row r="982" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A982" s="1" t="s">
         <v>86</v>
       </c>
@@ -40496,7 +40502,7 @@
         <v>4777</v>
       </c>
     </row>
-    <row r="983" spans="1:8">
+    <row r="983" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A983" s="1" t="s">
         <v>86</v>
       </c>
@@ -40522,7 +40528,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="984" spans="1:8">
+    <row r="984" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A984" s="1" t="s">
         <v>86</v>
       </c>
@@ -40548,7 +40554,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="985" spans="1:8">
+    <row r="985" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A985" s="1" t="s">
         <v>86</v>
       </c>
@@ -40574,7 +40580,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="986" spans="1:8">
+    <row r="986" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A986" s="1" t="s">
         <v>86</v>
       </c>
@@ -40600,7 +40606,7 @@
         <v>4790</v>
       </c>
     </row>
-    <row r="987" spans="1:8">
+    <row r="987" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A987" s="1" t="s">
         <v>86</v>
       </c>
@@ -40626,7 +40632,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="988" spans="1:8">
+    <row r="988" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A988" s="1" t="s">
         <v>86</v>
       </c>
@@ -40652,7 +40658,7 @@
         <v>4797</v>
       </c>
     </row>
-    <row r="989" spans="1:8">
+    <row r="989" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A989" s="1" t="s">
         <v>86</v>
       </c>
@@ -40678,7 +40684,7 @@
         <v>4509</v>
       </c>
     </row>
-    <row r="990" spans="1:8">
+    <row r="990" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A990" s="1" t="s">
         <v>86</v>
       </c>
@@ -40704,7 +40710,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="991" spans="1:8">
+    <row r="991" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A991" s="1" t="s">
         <v>86</v>
       </c>
@@ -40730,7 +40736,7 @@
         <v>4769</v>
       </c>
     </row>
-    <row r="992" spans="1:8">
+    <row r="992" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A992" s="1" t="s">
         <v>86</v>
       </c>
@@ -40756,7 +40762,7 @@
         <v>4808</v>
       </c>
     </row>
-    <row r="993" spans="1:8">
+    <row r="993" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A993" s="1" t="s">
         <v>86</v>
       </c>
@@ -40782,7 +40788,7 @@
         <v>4814</v>
       </c>
     </row>
-    <row r="994" spans="1:8">
+    <row r="994" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A994" s="1" t="s">
         <v>86</v>
       </c>
@@ -40808,7 +40814,7 @@
         <v>4820</v>
       </c>
     </row>
-    <row r="995" spans="1:8">
+    <row r="995" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A995" s="1" t="s">
         <v>86</v>
       </c>
@@ -40834,7 +40840,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="996" spans="1:8">
+    <row r="996" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A996" s="1" t="s">
         <v>86</v>
       </c>
@@ -40860,7 +40866,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="997" spans="1:8">
+    <row r="997" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A997" s="1" t="s">
         <v>86</v>
       </c>
@@ -40886,7 +40892,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="998" spans="1:8">
+    <row r="998" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A998" s="1" t="s">
         <v>86</v>
       </c>
@@ -40912,7 +40918,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="999" spans="1:8">
+    <row r="999" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A999" s="1" t="s">
         <v>86</v>
       </c>
